--- a/output/5Y_P13_KFSDIV.xlsx
+++ b/output/5Y_P13_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-35</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-34</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-33</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-32</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-31</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-30</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-29</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-28</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-27</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-26</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-25</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-24</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8083</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-23</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5636</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-22</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.1788</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-21</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.5668</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.962</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2659</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.4103</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-17</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.3976</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.9013</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.3527</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-14</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8804</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-13</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6268</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-12</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3636</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-11</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8711</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-10</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1252</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1934</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1176</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3311</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-6</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3637</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-5</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6447</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-4</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.486</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-3</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.1958</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-2</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4264</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-1</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>17.107</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.8894</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.4004</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3877</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.6367</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.0061</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.835</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.4216</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.2404</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.382</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.9583</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.2036</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.9136</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.4338</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.9657</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3568</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.2487</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3991</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.5985</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.6955</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3398</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.8469</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.129</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.716</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.4613</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-35</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-34</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-33</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-32</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-31</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-30</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-29</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-28</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-27</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-26</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-25</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-24</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8083</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-23</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5636</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-22</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.1788</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-21</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.5668</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.962</v>
@@ -5303,10 +5306,10 @@
         <v>200798.4444</v>
       </c>
       <c r="K19" s="1">
-        <v>148139.3782</v>
+        <v>148166.8577</v>
       </c>
       <c r="L19" s="1">
-        <v>12.6683</v>
+        <v>12.6706</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2659</v>
@@ -5356,10 +5359,10 @@
         <v>194125.9781</v>
       </c>
       <c r="K20" s="1">
-        <v>165266.1498</v>
+        <v>165293.6293</v>
       </c>
       <c r="L20" s="1">
-        <v>12.7935</v>
+        <v>12.7957</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.4103</v>
@@ -5409,10 +5412,10 @@
         <v>206234.7539</v>
       </c>
       <c r="K21" s="1">
-        <v>197260.1777</v>
+        <v>197287.6571</v>
       </c>
       <c r="L21" s="1">
-        <v>12.7092</v>
+        <v>12.7109</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-17</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.3976</v>
@@ -5462,10 +5465,10 @@
         <v>215998.5227</v>
       </c>
       <c r="K22" s="1">
-        <v>205054.7397</v>
+        <v>205082.2192</v>
       </c>
       <c r="L22" s="1">
-        <v>12.6985</v>
+        <v>12.7002</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.9013</v>
@@ -5515,10 +5518,10 @@
         <v>241756.3579</v>
       </c>
       <c r="K23" s="1">
-        <v>215300.7283</v>
+        <v>215328.2078</v>
       </c>
       <c r="L23" s="1">
-        <v>12.6851</v>
+        <v>12.6867</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.3527</v>
@@ -5568,10 +5571,10 @@
         <v>259448.0292</v>
       </c>
       <c r="K24" s="1">
-        <v>216774.4387</v>
+        <v>216801.9181</v>
       </c>
       <c r="L24" s="1">
-        <v>12.6867</v>
+        <v>12.6883</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-14</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8804</v>
@@ -5621,10 +5624,10 @@
         <v>278527.6345</v>
       </c>
       <c r="K25" s="1">
-        <v>219086.1171</v>
+        <v>219113.5966</v>
       </c>
       <c r="L25" s="1">
-        <v>12.6937</v>
+        <v>12.6953</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-13</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6268</v>
@@ -5674,10 +5677,10 @@
         <v>309198.0734</v>
       </c>
       <c r="K26" s="1">
-        <v>220000.9253</v>
+        <v>220028.4048</v>
       </c>
       <c r="L26" s="1">
-        <v>12.6983</v>
+        <v>12.6999</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-12</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3636</v>
@@ -5727,10 +5730,10 @@
         <v>331790.8969</v>
       </c>
       <c r="K27" s="1">
-        <v>217081.9499</v>
+        <v>217121.0805</v>
       </c>
       <c r="L27" s="1">
-        <v>12.6755</v>
+        <v>12.6778</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-11</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8711</v>
@@ -5780,10 +5783,10 @@
         <v>316533.4439</v>
       </c>
       <c r="K28" s="1">
-        <v>214478.7267</v>
+        <v>214528.2571</v>
       </c>
       <c r="L28" s="1">
-        <v>12.6484</v>
+        <v>12.6513</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-10</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1252</v>
@@ -5833,10 +5836,10 @@
         <v>338968.9264</v>
       </c>
       <c r="K29" s="1">
-        <v>249877.5314</v>
+        <v>249927.0617</v>
       </c>
       <c r="L29" s="1">
-        <v>12.8117</v>
+        <v>12.8142</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1934</v>
@@ -5886,10 +5889,10 @@
         <v>350299.3129</v>
       </c>
       <c r="K30" s="1">
-        <v>254951.603</v>
+        <v>255001.1334</v>
       </c>
       <c r="L30" s="1">
-        <v>12.8359</v>
+        <v>12.8384</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1176</v>
@@ -5939,10 +5942,10 @@
         <v>358716.8714</v>
       </c>
       <c r="K31" s="1">
-        <v>263635.644</v>
+        <v>263685.1743</v>
       </c>
       <c r="L31" s="1">
-        <v>12.8772</v>
+        <v>12.8797</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3311</v>
@@ -5992,10 +5995,10 @@
         <v>403668.7544</v>
       </c>
       <c r="K32" s="1">
-        <v>275229.7103</v>
+        <v>275279.2406</v>
       </c>
       <c r="L32" s="1">
-        <v>12.9261</v>
+        <v>12.9284</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-6</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3637</v>
@@ -6045,10 +6048,10 @@
         <v>414329.26</v>
       </c>
       <c r="K33" s="1">
-        <v>259381.0221</v>
+        <v>259493.8985</v>
       </c>
       <c r="L33" s="1">
-        <v>12.802</v>
+        <v>12.8076</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-5</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6447</v>
@@ -6098,10 +6101,10 @@
         <v>409315.4742</v>
       </c>
       <c r="K34" s="1">
-        <v>268757.9768</v>
+        <v>268870.8532</v>
       </c>
       <c r="L34" s="1">
-        <v>12.8777</v>
+        <v>12.8831</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-4</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.486</v>
@@ -6151,10 +6154,10 @@
         <v>456955.6136</v>
       </c>
       <c r="K35" s="1">
-        <v>293834.4441</v>
+        <v>293947.3206</v>
       </c>
       <c r="L35" s="1">
-        <v>13.0137</v>
+        <v>13.0187</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-3</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.1958</v>
@@ -6204,10 +6207,10 @@
         <v>482539.9553</v>
       </c>
       <c r="K36" s="1">
-        <v>284841.2465</v>
+        <v>284990.0563</v>
       </c>
       <c r="L36" s="1">
-        <v>12.9477</v>
+        <v>12.9545</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-2</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4264</v>
@@ -6257,10 +6260,10 @@
         <v>497524.6738</v>
       </c>
       <c r="K37" s="1">
-        <v>279234.5169</v>
+        <v>279405.7147</v>
       </c>
       <c r="L37" s="1">
-        <v>12.8954</v>
+        <v>12.9033</v>
       </c>
       <c r="M37" s="1">
         <v>0.75</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-1</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>17.107</v>
@@ -6310,10 +6313,10 @@
         <v>537036.0186</v>
       </c>
       <c r="K38" s="1">
-        <v>284269.8979</v>
+        <v>284441.0957</v>
       </c>
       <c r="L38" s="1">
-        <v>12.945</v>
+        <v>12.9528</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.8894</v>
@@ -6363,10 +6366,10 @@
         <v>542328.8821</v>
       </c>
       <c r="K39" s="1">
-        <v>279335.0886</v>
+        <v>279526.0068</v>
       </c>
       <c r="L39" s="1">
-        <v>12.8893</v>
+        <v>12.8981</v>
       </c>
       <c r="M39" s="1">
         <v>1</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.4004</v>
@@ -6416,10 +6419,10 @@
         <v>560772.9229</v>
       </c>
       <c r="K40" s="1">
-        <v>294101.2086</v>
+        <v>294292.1268</v>
       </c>
       <c r="L40" s="1">
-        <v>13.0454</v>
+        <v>13.0539</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3877</v>
@@ -6469,10 +6472,10 @@
         <v>546606.1049</v>
       </c>
       <c r="K41" s="1">
-        <v>315187.1949</v>
+        <v>315378.1131</v>
       </c>
       <c r="L41" s="1">
-        <v>13.2278</v>
+        <v>13.2359</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.6367</v>
@@ -6522,10 +6525,10 @@
         <v>536947.223</v>
       </c>
       <c r="K42" s="1">
-        <v>349406.4242</v>
+        <v>349597.3425</v>
       </c>
       <c r="L42" s="1">
-        <v>13.4145</v>
+        <v>13.4218</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.0061</v>
@@ -6575,10 +6578,10 @@
         <v>501153.7896</v>
       </c>
       <c r="K43" s="1">
-        <v>379047.0265</v>
+        <v>379237.9447</v>
       </c>
       <c r="L43" s="1">
-        <v>13.5046</v>
+        <v>13.5114</v>
       </c>
       <c r="M43" s="1">
         <v>0.5</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.835</v>
@@ -6628,10 +6631,10 @@
         <v>550326.7992</v>
       </c>
       <c r="K44" s="1">
-        <v>434945.4972</v>
+        <v>435136.4154</v>
       </c>
       <c r="L44" s="1">
-        <v>13.442</v>
+        <v>13.4479</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.4216</v>
@@ -6681,10 +6684,10 @@
         <v>578560.9942</v>
       </c>
       <c r="K45" s="1">
-        <v>418112.3307</v>
+        <v>418370.5199</v>
       </c>
       <c r="L45" s="1">
-        <v>13.4256</v>
+        <v>13.4339</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.2404</v>
@@ -6734,10 +6737,10 @@
         <v>552521.0298</v>
       </c>
       <c r="K46" s="1">
-        <v>409845.1253</v>
+        <v>410136.325</v>
       </c>
       <c r="L46" s="1">
-        <v>13.4064</v>
+        <v>13.4159</v>
       </c>
       <c r="M46" s="1">
         <v>0.4</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.382</v>
@@ -6787,10 +6790,10 @@
         <v>544166.9098</v>
       </c>
       <c r="K47" s="1">
-        <v>456069.7527</v>
+        <v>456360.9524</v>
       </c>
       <c r="L47" s="1">
-        <v>13.3921</v>
+        <v>13.4007</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.9583</v>
@@ -6840,10 +6843,10 @@
         <v>538270.8267</v>
       </c>
       <c r="K48" s="1">
-        <v>495401.955</v>
+        <v>495693.1546</v>
       </c>
       <c r="L48" s="1">
-        <v>13.3082</v>
+        <v>13.316</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.2036</v>
@@ -6893,10 +6896,10 @@
         <v>557808.2236</v>
       </c>
       <c r="K49" s="1">
-        <v>521244.1011</v>
+        <v>521535.3008</v>
       </c>
       <c r="L49" s="1">
-        <v>13.2356</v>
+        <v>13.243</v>
       </c>
       <c r="M49" s="1">
         <v>0.4</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.9136</v>
@@ -6946,10 +6949,10 @@
         <v>609911.2422</v>
       </c>
       <c r="K50" s="1">
-        <v>521604.8412</v>
+        <v>521896.0409</v>
       </c>
       <c r="L50" s="1">
-        <v>13.2349</v>
+        <v>13.2422</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.4338</v>
@@ -6999,10 +7002,10 @@
         <v>639647.6596</v>
       </c>
       <c r="K51" s="1">
-        <v>503605.9689</v>
+        <v>503969.0834</v>
       </c>
       <c r="L51" s="1">
-        <v>13.2457</v>
+        <v>13.2552</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.9657</v>
@@ -7052,10 +7055,10 @@
         <v>632227.5251</v>
       </c>
       <c r="K52" s="1">
-        <v>493830.4807</v>
+        <v>494232.666</v>
       </c>
       <c r="L52" s="1">
-        <v>13.2415</v>
+        <v>13.2523</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3568</v>
@@ -7105,10 +7108,10 @@
         <v>667569.9925000001</v>
       </c>
       <c r="K53" s="1">
-        <v>521360.594</v>
+        <v>521762.7793</v>
       </c>
       <c r="L53" s="1">
-        <v>13.228</v>
+        <v>13.2382</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.2487</v>
@@ -7158,10 +7161,10 @@
         <v>673360.8718</v>
       </c>
       <c r="K54" s="1">
-        <v>515955.9851</v>
+        <v>516379.775</v>
       </c>
       <c r="L54" s="1">
-        <v>13.2264</v>
+        <v>13.2373</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3991</v>
@@ -7211,10 +7214,10 @@
         <v>689320.5392999999</v>
       </c>
       <c r="K55" s="1">
-        <v>530222.0618</v>
+        <v>530645.8517</v>
       </c>
       <c r="L55" s="1">
-        <v>13.2277</v>
+        <v>13.2383</v>
       </c>
       <c r="M55" s="1">
         <v>0.4</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.5985</v>
@@ -7264,10 +7267,10 @@
         <v>721770.8639</v>
       </c>
       <c r="K56" s="1">
-        <v>534221.4047</v>
+        <v>534645.1946</v>
       </c>
       <c r="L56" s="1">
-        <v>13.2292</v>
+        <v>13.2397</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.6955</v>
@@ -7317,10 +7320,10 @@
         <v>735685.9759</v>
       </c>
       <c r="K57" s="1">
-        <v>536193.2625</v>
+        <v>536617.0524</v>
       </c>
       <c r="L57" s="1">
-        <v>13.2306</v>
+        <v>13.2411</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3398</v>
@@ -7370,10 +7373,10 @@
         <v>731116.7951</v>
       </c>
       <c r="K58" s="1">
-        <v>542294.6428</v>
+        <v>542718.4327</v>
       </c>
       <c r="L58" s="1">
-        <v>13.236</v>
+        <v>13.2463</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.8469</v>
@@ -7423,10 +7426,10 @@
         <v>731019.9135</v>
       </c>
       <c r="K59" s="1">
-        <v>566937.9102</v>
+        <v>567361.7001</v>
       </c>
       <c r="L59" s="1">
-        <v>13.2416</v>
+        <v>13.2515</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.129</v>
@@ -7476,10 +7479,10 @@
         <v>753629.7692</v>
       </c>
       <c r="K60" s="1">
-        <v>598123.1166</v>
+        <v>598546.9065</v>
       </c>
       <c r="L60" s="1">
-        <v>13.2218</v>
+        <v>13.2312</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.716</v>
@@ -7529,10 +7532,10 @@
         <v>745073.3648</v>
       </c>
       <c r="K61" s="1">
-        <v>595377.7622</v>
+        <v>595812.5291</v>
       </c>
       <c r="L61" s="1">
-        <v>13.2221</v>
+        <v>13.2318</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.4613</v>
@@ -7582,10 +7585,10 @@
         <v>755098.2848</v>
       </c>
       <c r="K62" s="1">
-        <v>624048.7018</v>
+        <v>624483.4687</v>
       </c>
       <c r="L62" s="1">
-        <v>13.1993</v>
+        <v>13.2084</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-35</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-34</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-33</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-32</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-31</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-30</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-29</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-28</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-27</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-26</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-25</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-24</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8083</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-23</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5636</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-22</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.1788</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-21</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.5668</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.962</v>
@@ -8615,10 +8618,10 @@
         <v>201456.2801</v>
       </c>
       <c r="K19" s="1">
-        <v>154522.1614</v>
+        <v>154548.9039</v>
       </c>
       <c r="L19" s="1">
-        <v>12.6934</v>
+        <v>12.6956</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2659</v>
@@ -8668,10 +8671,10 @@
         <v>194040.3781</v>
       </c>
       <c r="K20" s="1">
-        <v>172828.0264</v>
+        <v>172854.7689</v>
       </c>
       <c r="L20" s="1">
-        <v>12.8193</v>
+        <v>12.8213</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.4103</v>
@@ -8721,10 +8724,10 @@
         <v>206245.1139</v>
       </c>
       <c r="K21" s="1">
-        <v>206723.5068</v>
+        <v>206750.2493</v>
       </c>
       <c r="L21" s="1">
-        <v>12.7295</v>
+        <v>12.7311</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-17</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.3976</v>
@@ -8774,10 +8777,10 @@
         <v>215995.2699</v>
       </c>
       <c r="K22" s="1">
-        <v>215412.0717</v>
+        <v>215438.8142</v>
       </c>
       <c r="L22" s="1">
-        <v>12.7173</v>
+        <v>12.7189</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.9013</v>
@@ -8827,10 +8830,10 @@
         <v>242545.0275</v>
       </c>
       <c r="K23" s="1">
-        <v>226721.3011</v>
+        <v>226748.0436</v>
       </c>
       <c r="L23" s="1">
-        <v>12.7023</v>
+        <v>12.7038</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.3527</v>
@@ -8880,10 +8883,10 @@
         <v>260651.9522</v>
       </c>
       <c r="K24" s="1">
-        <v>228861.4496</v>
+        <v>228888.1922</v>
       </c>
       <c r="L24" s="1">
-        <v>12.7044</v>
+        <v>12.7059</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-14</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8804</v>
@@ -8933,10 +8936,10 @@
         <v>280246.4079</v>
       </c>
       <c r="K25" s="1">
-        <v>231917.9091</v>
+        <v>231944.6516</v>
       </c>
       <c r="L25" s="1">
-        <v>12.7128</v>
+        <v>12.7143</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-13</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6268</v>
@@ -8986,10 +8989,10 @@
         <v>312126.6639</v>
       </c>
       <c r="K26" s="1">
-        <v>233533.2092</v>
+        <v>233559.9517</v>
       </c>
       <c r="L26" s="1">
-        <v>12.7204</v>
+        <v>12.7218</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-12</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3636</v>
@@ -9039,10 +9042,10 @@
         <v>335504.8338</v>
       </c>
       <c r="K27" s="1">
-        <v>231117.7283</v>
+        <v>231154.1123</v>
       </c>
       <c r="L27" s="1">
-        <v>12.7028</v>
+        <v>12.7048</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-11</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8711</v>
@@ -9092,10 +9095,10 @@
         <v>318603.7904</v>
       </c>
       <c r="K28" s="1">
-        <v>229059.2908</v>
+        <v>229103.8982</v>
       </c>
       <c r="L28" s="1">
-        <v>12.6829</v>
+        <v>12.6854</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-10</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1252</v>
@@ -9145,10 +9148,10 @@
         <v>341858.9946</v>
       </c>
       <c r="K29" s="1">
-        <v>267498.4219</v>
+        <v>267543.0292</v>
       </c>
       <c r="L29" s="1">
-        <v>12.8444</v>
+        <v>12.8465</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1934</v>
@@ -9198,10 +9201,10 @@
         <v>353280.193</v>
       </c>
       <c r="K30" s="1">
-        <v>273683.1366</v>
+        <v>273727.7439</v>
       </c>
       <c r="L30" s="1">
-        <v>12.8713</v>
+        <v>12.8734</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1176</v>
@@ -9251,10 +9254,10 @@
         <v>361578.7427</v>
       </c>
       <c r="K31" s="1">
-        <v>283776.2859</v>
+        <v>283820.8933</v>
       </c>
       <c r="L31" s="1">
-        <v>12.9149</v>
+        <v>12.917</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3311</v>
@@ -9304,10 +9307,10 @@
         <v>409158.5177</v>
       </c>
       <c r="K32" s="1">
-        <v>297046.6483</v>
+        <v>297091.2556</v>
       </c>
       <c r="L32" s="1">
-        <v>12.9653</v>
+        <v>12.9673</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-6</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3637</v>
@@ -9357,10 +9360,10 @@
         <v>419871.0417</v>
       </c>
       <c r="K33" s="1">
-        <v>280850.8734</v>
+        <v>280960.214</v>
       </c>
       <c r="L33" s="1">
-        <v>12.8497</v>
+        <v>12.8547</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-5</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6447</v>
@@ -9410,10 +9413,10 @@
         <v>413629.8954</v>
       </c>
       <c r="K34" s="1">
-        <v>291854.3785</v>
+        <v>291963.7191</v>
       </c>
       <c r="L34" s="1">
-        <v>12.9303</v>
+        <v>12.9352</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-4</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.486</v>
@@ -9463,10 +9466,10 @@
         <v>464387.3472</v>
       </c>
       <c r="K35" s="1">
-        <v>319893.9726</v>
+        <v>320003.3133</v>
       </c>
       <c r="L35" s="1">
-        <v>13.0664</v>
+        <v>13.0709</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-3</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.1958</v>
@@ -9516,10 +9519,10 @@
         <v>491328.707</v>
       </c>
       <c r="K36" s="1">
-        <v>311092.6616</v>
+        <v>311237.1689</v>
       </c>
       <c r="L36" s="1">
-        <v>13.0083</v>
+        <v>13.0143</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-2</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4264</v>
@@ -9569,10 +9572,10 @@
         <v>506761.3919</v>
       </c>
       <c r="K37" s="1">
-        <v>305978.9112</v>
+        <v>306143.838</v>
       </c>
       <c r="L37" s="1">
-        <v>12.9653</v>
+        <v>12.9723</v>
       </c>
       <c r="M37" s="1">
         <v>0.75</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-1</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>17.107</v>
@@ -9622,10 +9625,10 @@
         <v>548962.6052</v>
       </c>
       <c r="K38" s="1">
-        <v>312479.443</v>
+        <v>312644.3698</v>
       </c>
       <c r="L38" s="1">
-        <v>13.0228</v>
+        <v>13.0297</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.8894</v>
@@ -9675,10 +9678,10 @@
         <v>553806.028</v>
       </c>
       <c r="K39" s="1">
-        <v>308131.6096</v>
+        <v>308313.9112</v>
       </c>
       <c r="L39" s="1">
-        <v>12.9788</v>
+        <v>12.9865</v>
       </c>
       <c r="M39" s="1">
         <v>1</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.4004</v>
@@ -9728,10 +9731,10 @@
         <v>573020.9816000001</v>
       </c>
       <c r="K40" s="1">
-        <v>325383.7399</v>
+        <v>325566.0415</v>
       </c>
       <c r="L40" s="1">
-        <v>13.1412</v>
+        <v>13.1486</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3877</v>
@@ -9781,10 +9784,10 @@
         <v>556405.9462</v>
       </c>
       <c r="K41" s="1">
-        <v>349650.696</v>
+        <v>349832.9976</v>
       </c>
       <c r="L41" s="1">
-        <v>13.3265</v>
+        <v>13.3334</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.6367</v>
@@ -9834,10 +9837,10 @@
         <v>544698.9391</v>
       </c>
       <c r="K42" s="1">
-        <v>388471.0139</v>
+        <v>388653.3155</v>
       </c>
       <c r="L42" s="1">
-        <v>13.5097</v>
+        <v>13.516</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.0061</v>
@@ -9887,10 +9890,10 @@
         <v>504009.478</v>
       </c>
       <c r="K43" s="1">
-        <v>422366.3017</v>
+        <v>422548.6033</v>
       </c>
       <c r="L43" s="1">
-        <v>13.5957</v>
+        <v>13.6016</v>
       </c>
       <c r="M43" s="1">
         <v>0.5</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.835</v>
@@ -9940,10 +9943,10 @@
         <v>557438.6727999999</v>
       </c>
       <c r="K44" s="1">
-        <v>485441.473</v>
+        <v>485623.7746</v>
       </c>
       <c r="L44" s="1">
-        <v>13.5197</v>
+        <v>13.5248</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.4216</v>
@@ -9993,10 +9996,10 @@
         <v>587725.0935</v>
       </c>
       <c r="K45" s="1">
-        <v>468000.5341</v>
+        <v>468252.5355</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5073</v>
+        <v>13.5146</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.2404</v>
@@ -10046,10 +10049,10 @@
         <v>557525.1586</v>
       </c>
       <c r="K46" s="1">
-        <v>460074.4436</v>
+        <v>460358.0935</v>
       </c>
       <c r="L46" s="1">
-        <v>13.4921</v>
+        <v>13.5004</v>
       </c>
       <c r="M46" s="1">
         <v>0.4</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.382</v>
@@ -10099,10 +10102,10 @@
         <v>546963.0102</v>
       </c>
       <c r="K47" s="1">
-        <v>512939.5079</v>
+        <v>513223.1578</v>
       </c>
       <c r="L47" s="1">
-        <v>13.4685</v>
+        <v>13.476</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.9583</v>
@@ -10152,10 +10155,10 @@
         <v>539135.2247</v>
       </c>
       <c r="K48" s="1">
-        <v>558263.7016</v>
+        <v>558547.3514</v>
       </c>
       <c r="L48" s="1">
-        <v>13.3756</v>
+        <v>13.3824</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.2036</v>
@@ -10205,10 +10208,10 @@
         <v>559851.2233</v>
       </c>
       <c r="K49" s="1">
-        <v>588610.3918</v>
+        <v>588894.0416</v>
       </c>
       <c r="L49" s="1">
-        <v>13.2959</v>
+        <v>13.3023</v>
       </c>
       <c r="M49" s="1">
         <v>0.4</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.9136</v>
@@ -10258,10 +10261,10 @@
         <v>617255.9483</v>
       </c>
       <c r="K50" s="1">
-        <v>590422.0082</v>
+        <v>590705.6580000001</v>
       </c>
       <c r="L50" s="1">
-        <v>13.2923</v>
+        <v>13.2987</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.4338</v>
@@ -10311,10 +10314,10 @@
         <v>649557.4238</v>
       </c>
       <c r="K51" s="1">
-        <v>571576.8566000001</v>
+        <v>571935.8026000001</v>
       </c>
       <c r="L51" s="1">
-        <v>13.3043</v>
+        <v>13.3127</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.9657</v>
@@ -10364,10 +10367,10 @@
         <v>639822.0968000001</v>
       </c>
       <c r="K52" s="1">
-        <v>562005.5423</v>
+        <v>562402.7431</v>
       </c>
       <c r="L52" s="1">
-        <v>13.3017</v>
+        <v>13.3111</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3568</v>
@@ -10417,10 +10420,10 @@
         <v>678571.9728</v>
       </c>
       <c r="K53" s="1">
-        <v>594703.7523000001</v>
+        <v>595100.9531</v>
       </c>
       <c r="L53" s="1">
-        <v>13.2842</v>
+        <v>13.2931</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.2487</v>
@@ -10470,10 +10473,10 @@
         <v>683778.5913</v>
       </c>
       <c r="K54" s="1">
-        <v>590109.0073000001</v>
+        <v>590524.5753</v>
       </c>
       <c r="L54" s="1">
-        <v>13.2835</v>
+        <v>13.2928</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3991</v>
@@ -10523,10 +10526,10 @@
         <v>700577.0604</v>
       </c>
       <c r="K55" s="1">
-        <v>607934.4568</v>
+        <v>608350.0248</v>
       </c>
       <c r="L55" s="1">
-        <v>13.2832</v>
+        <v>13.2923</v>
       </c>
       <c r="M55" s="1">
         <v>0.4</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.5985</v>
@@ -10576,10 +10579,10 @@
         <v>736227.7828</v>
       </c>
       <c r="K56" s="1">
-        <v>614115.2026</v>
+        <v>614530.7706</v>
       </c>
       <c r="L56" s="1">
-        <v>13.2847</v>
+        <v>13.2936</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.6955</v>
@@ -10629,10 +10632,10 @@
         <v>750714.7551</v>
       </c>
       <c r="K57" s="1">
-        <v>618022.38</v>
+        <v>618437.948</v>
       </c>
       <c r="L57" s="1">
-        <v>13.2868</v>
+        <v>13.2957</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3398</v>
@@ -10682,10 +10685,10 @@
         <v>743942.7672999999</v>
       </c>
       <c r="K58" s="1">
-        <v>626710.7928000001</v>
+        <v>627126.3608</v>
       </c>
       <c r="L58" s="1">
-        <v>13.2926</v>
+        <v>13.3014</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.8469</v>
@@ -10735,10 +10738,10 @@
         <v>742253.6557999999</v>
       </c>
       <c r="K59" s="1">
-        <v>656790.3247999999</v>
+        <v>657205.8928</v>
       </c>
       <c r="L59" s="1">
-        <v>13.296</v>
+        <v>13.3044</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.129</v>
@@ -10788,10 +10791,10 @@
         <v>766833.6655</v>
       </c>
       <c r="K60" s="1">
-        <v>694527.9041</v>
+        <v>694943.472</v>
       </c>
       <c r="L60" s="1">
-        <v>13.2723</v>
+        <v>13.2802</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.716</v>
@@ -10841,10 +10844,10 @@
         <v>755312.0449</v>
       </c>
       <c r="K61" s="1">
-        <v>693146.3063000001</v>
+        <v>693567.3983999999</v>
       </c>
       <c r="L61" s="1">
-        <v>13.2725</v>
+        <v>13.2806</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.4613</v>
@@ -10894,10 +10897,10 @@
         <v>765297.1087</v>
       </c>
       <c r="K62" s="1">
-        <v>728229.4725</v>
+        <v>728650.5646</v>
       </c>
       <c r="L62" s="1">
-        <v>13.2459</v>
+        <v>13.2536</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-35</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-34</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-33</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-32</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-31</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-30</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-29</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-28</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-27</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-26</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-25</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-24</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8083</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-23</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5636</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-22</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.1788</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-21</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.5668</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.962</v>
@@ -11927,10 +11930,10 @@
         <v>201962.8251</v>
       </c>
       <c r="K19" s="1">
-        <v>161411.0626</v>
+        <v>161436.9343</v>
       </c>
       <c r="L19" s="1">
-        <v>12.7319</v>
+        <v>12.7339</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2659</v>
@@ -11980,10 +11983,10 @@
         <v>193761.7831</v>
       </c>
       <c r="K20" s="1">
-        <v>180984.5697</v>
+        <v>181010.4414</v>
       </c>
       <c r="L20" s="1">
-        <v>12.8569</v>
+        <v>12.8588</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.4103</v>
@@ -12033,10 +12036,10 @@
         <v>206033.2825</v>
       </c>
       <c r="K21" s="1">
-        <v>212426.6688</v>
+        <v>212452.5405</v>
       </c>
       <c r="L21" s="1">
-        <v>12.7698</v>
+        <v>12.7714</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-17</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.3976</v>
@@ -12086,10 +12089,10 @@
         <v>215771.8374</v>
       </c>
       <c r="K22" s="1">
-        <v>222426.6688</v>
+        <v>222452.5405</v>
       </c>
       <c r="L22" s="1">
-        <v>12.7544</v>
+        <v>12.7559</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.9013</v>
@@ -12139,10 +12142,10 @@
         <v>242750.9155</v>
       </c>
       <c r="K23" s="1">
-        <v>232426.6688</v>
+        <v>232452.5405</v>
       </c>
       <c r="L23" s="1">
-        <v>12.7398</v>
+        <v>12.7412</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.3527</v>
@@ -12192,10 +12195,10 @@
         <v>261273.861</v>
       </c>
       <c r="K24" s="1">
-        <v>242278.6581</v>
+        <v>242304.5297</v>
       </c>
       <c r="L24" s="1">
-        <v>12.7473</v>
+        <v>12.7486</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-14</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8804</v>
@@ -12245,10 +12248,10 @@
         <v>281420.5072</v>
       </c>
       <c r="K25" s="1">
-        <v>246179.0664</v>
+        <v>246204.938</v>
       </c>
       <c r="L25" s="1">
-        <v>12.7568</v>
+        <v>12.7582</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-13</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6268</v>
@@ -12298,10 +12301,10 @@
         <v>314601.3338</v>
       </c>
       <c r="K26" s="1">
-        <v>248598.1244</v>
+        <v>248623.9961</v>
       </c>
       <c r="L26" s="1">
-        <v>12.7671</v>
+        <v>12.7684</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-12</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3636</v>
@@ -12351,10 +12354,10 @@
         <v>338827.7989</v>
       </c>
       <c r="K27" s="1">
-        <v>246781.7518</v>
+        <v>246814.8735</v>
       </c>
       <c r="L27" s="1">
-        <v>12.755</v>
+        <v>12.7567</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-11</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8711</v>
@@ -12404,10 +12407,10 @@
         <v>320145.4047</v>
       </c>
       <c r="K28" s="1">
-        <v>245373.9827</v>
+        <v>245412.7285</v>
       </c>
       <c r="L28" s="1">
-        <v>12.7425</v>
+        <v>12.7445</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-10</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1252</v>
@@ -12457,10 +12460,10 @@
         <v>344290.0004</v>
       </c>
       <c r="K29" s="1">
-        <v>287175.86</v>
+        <v>287214.6057</v>
       </c>
       <c r="L29" s="1">
-        <v>12.8987</v>
+        <v>12.9004</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1934</v>
@@ -12510,10 +12513,10 @@
         <v>355810.0156</v>
       </c>
       <c r="K30" s="1">
-        <v>294641.6119</v>
+        <v>294680.3576</v>
       </c>
       <c r="L30" s="1">
-        <v>12.9277</v>
+        <v>12.9294</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1176</v>
@@ -12563,10 +12566,10 @@
         <v>363977.9679</v>
       </c>
       <c r="K31" s="1">
-        <v>306351.4711</v>
+        <v>306390.2168</v>
       </c>
       <c r="L31" s="1">
-        <v>12.9728</v>
+        <v>12.9745</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3311</v>
@@ -12616,10 +12619,10 @@
         <v>414441.9721</v>
       </c>
       <c r="K32" s="1">
-        <v>321542.4642</v>
+        <v>321581.2099</v>
       </c>
       <c r="L32" s="1">
-        <v>13.0239</v>
+        <v>13.0254</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-6</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3637</v>
@@ -12669,10 +12672,10 @@
         <v>425211.8392</v>
       </c>
       <c r="K33" s="1">
-        <v>305057.0513</v>
+        <v>305161.688</v>
       </c>
       <c r="L33" s="1">
-        <v>12.9176</v>
+        <v>12.9221</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-5</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6447</v>
@@ -12722,10 +12725,10 @@
         <v>417612.7196</v>
       </c>
       <c r="K34" s="1">
-        <v>317951.9727</v>
+        <v>318056.6094</v>
       </c>
       <c r="L34" s="1">
-        <v>13.0025</v>
+        <v>13.0068</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-4</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.486</v>
@@ -12775,10 +12778,10 @@
         <v>471823.8911</v>
       </c>
       <c r="K35" s="1">
-        <v>349374.4691</v>
+        <v>349479.1058</v>
       </c>
       <c r="L35" s="1">
-        <v>13.1371</v>
+        <v>13.141</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-3</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.1958</v>
@@ -12828,10 +12831,10 @@
         <v>500276.5302</v>
       </c>
       <c r="K36" s="1">
-        <v>340898.7142</v>
+        <v>341037.2168</v>
       </c>
       <c r="L36" s="1">
-        <v>13.0872</v>
+        <v>13.0925</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-2</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4264</v>
@@ -12881,10 +12884,10 @@
         <v>516209.8088</v>
       </c>
       <c r="K37" s="1">
-        <v>336454.0974</v>
+        <v>336610.3476</v>
       </c>
       <c r="L37" s="1">
-        <v>13.0538</v>
+        <v>13.0598</v>
       </c>
       <c r="M37" s="1">
         <v>0.75</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-1</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>17.107</v>
@@ -12934,10 +12937,10 @@
         <v>561421.6652</v>
       </c>
       <c r="K38" s="1">
-        <v>344719.8405</v>
+        <v>344876.0907</v>
       </c>
       <c r="L38" s="1">
-        <v>13.1189</v>
+        <v>13.1248</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.8894</v>
@@ -12987,10 +12990,10 @@
         <v>565759.4065</v>
       </c>
       <c r="K39" s="1">
-        <v>341166.2311</v>
+        <v>341336.6822</v>
       </c>
       <c r="L39" s="1">
-        <v>13.0869</v>
+        <v>13.0934</v>
       </c>
       <c r="M39" s="1">
         <v>1</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.4004</v>
@@ -13040,10 +13043,10 @@
         <v>585836.9985</v>
       </c>
       <c r="K40" s="1">
-        <v>361359.9185</v>
+        <v>361530.3696</v>
       </c>
       <c r="L40" s="1">
-        <v>13.2548</v>
+        <v>13.261</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3877</v>
@@ -13093,10 +13096,10 @@
         <v>566447.9243</v>
       </c>
       <c r="K41" s="1">
-        <v>389371.3216</v>
+        <v>389541.7727</v>
       </c>
       <c r="L41" s="1">
-        <v>13.4418</v>
+        <v>13.4477</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.6367</v>
@@ -13146,10 +13149,10 @@
         <v>552412.1557</v>
       </c>
       <c r="K42" s="1">
-        <v>433566.1993</v>
+        <v>433736.6504</v>
       </c>
       <c r="L42" s="1">
-        <v>13.6198</v>
+        <v>13.6252</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.0061</v>
@@ -13199,10 +13202,10 @@
         <v>506137.4691</v>
       </c>
       <c r="K43" s="1">
-        <v>472469.4813</v>
+        <v>472639.9324</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7003</v>
+        <v>13.7052</v>
       </c>
       <c r="M43" s="1">
         <v>0.5</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.835</v>
@@ -13252,10 +13255,10 @@
         <v>564257.4737</v>
       </c>
       <c r="K44" s="1">
-        <v>540973.8226</v>
+        <v>541144.2737</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6119</v>
+        <v>13.6162</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.4216</v>
@@ -13305,10 +13308,10 @@
         <v>596900.8578999999</v>
       </c>
       <c r="K45" s="1">
-        <v>526153.6647</v>
+        <v>526383.3421</v>
       </c>
       <c r="L45" s="1">
-        <v>13.605</v>
+        <v>13.6109</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.2404</v>
@@ -13358,10 +13361,10 @@
         <v>561906.7994</v>
       </c>
       <c r="K46" s="1">
-        <v>518820.7787</v>
+        <v>519079.7359</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5937</v>
+        <v>13.6005</v>
       </c>
       <c r="M46" s="1">
         <v>0.4</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.382</v>
@@ -13411,10 +13414,10 @@
         <v>548785.4858</v>
       </c>
       <c r="K47" s="1">
-        <v>579550.6228</v>
+        <v>579809.58</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5587</v>
+        <v>13.5648</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.9583</v>
@@ -13464,10 +13467,10 @@
         <v>539548.5914</v>
       </c>
       <c r="K48" s="1">
-        <v>610143.8742</v>
+        <v>610402.8314</v>
       </c>
       <c r="L48" s="1">
-        <v>13.4959</v>
+        <v>13.5016</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.2036</v>
@@ -13517,10 +13520,10 @@
         <v>560780.2095999999</v>
       </c>
       <c r="K49" s="1">
-        <v>620143.8742</v>
+        <v>620402.8314</v>
       </c>
       <c r="L49" s="1">
-        <v>13.4685</v>
+        <v>13.4741</v>
       </c>
       <c r="M49" s="1">
         <v>0.4</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.9136</v>
@@ -13570,10 +13573,10 @@
         <v>620522.4218</v>
       </c>
       <c r="K50" s="1">
-        <v>630143.8742</v>
+        <v>630402.8314</v>
       </c>
       <c r="L50" s="1">
-        <v>13.4468</v>
+        <v>13.4524</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.4338</v>
@@ -13623,10 +13626,10 @@
         <v>655733.4004</v>
       </c>
       <c r="K51" s="1">
-        <v>654643.5531</v>
+        <v>654902.5103</v>
       </c>
       <c r="L51" s="1">
-        <v>13.4271</v>
+        <v>13.4324</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.9657</v>
@@ -13676,10 +13679,10 @@
         <v>643274.2544</v>
       </c>
       <c r="K52" s="1">
-        <v>645581.9514</v>
+        <v>645877.1262000001</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4267</v>
+        <v>13.4328</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3568</v>
@@ -13729,10 +13732,10 @@
         <v>685832.9761</v>
       </c>
       <c r="K53" s="1">
-        <v>676683.5299</v>
+        <v>676978.7047</v>
       </c>
       <c r="L53" s="1">
-        <v>13.406</v>
+        <v>13.4119</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.2487</v>
@@ -13782,10 +13785,10 @@
         <v>690328.0306000001</v>
       </c>
       <c r="K54" s="1">
-        <v>681541.0582</v>
+        <v>681836.233</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4059</v>
+        <v>13.4117</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3991</v>
@@ -13835,10 +13838,10 @@
         <v>708122.4529</v>
       </c>
       <c r="K55" s="1">
-        <v>703892.7121</v>
+        <v>704187.8869</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4017</v>
+        <v>13.4073</v>
       </c>
       <c r="M55" s="1">
         <v>0.4</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.5985</v>
@@ -13888,10 +13891,10 @@
         <v>747581.1715000001</v>
       </c>
       <c r="K56" s="1">
-        <v>712990.0301</v>
+        <v>713285.2049</v>
       </c>
       <c r="L56" s="1">
-        <v>13.402</v>
+        <v>13.4075</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.6955</v>
@@ -13941,10 +13944,10 @@
         <v>762751.3539</v>
       </c>
       <c r="K57" s="1">
-        <v>719543.4379</v>
+        <v>719838.6127000001</v>
       </c>
       <c r="L57" s="1">
-        <v>13.404</v>
+        <v>13.4095</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3398</v>
@@ -13994,10 +13997,10 @@
         <v>753332.0522</v>
       </c>
       <c r="K58" s="1">
-        <v>731680.8054</v>
+        <v>731975.9802</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4092</v>
+        <v>13.4146</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.8469</v>
@@ -14047,10 +14050,10 @@
         <v>749715.4169</v>
       </c>
       <c r="K59" s="1">
-        <v>768657.4608999999</v>
+        <v>768952.6357</v>
       </c>
       <c r="L59" s="1">
-        <v>13.4071</v>
+        <v>13.4123</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.129</v>
@@ -14100,10 +14103,10 @@
         <v>776295.0098</v>
       </c>
       <c r="K60" s="1">
-        <v>793306.6181</v>
+        <v>793601.7929</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3898</v>
+        <v>13.3948</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.716</v>
@@ -14153,10 +14156,10 @@
         <v>761526.1001</v>
       </c>
       <c r="K61" s="1">
-        <v>803306.6181</v>
+        <v>803601.7929</v>
       </c>
       <c r="L61" s="1">
-        <v>13.3869</v>
+        <v>13.3918</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.4613</v>
@@ -14206,10 +14209,10 @@
         <v>772234.7585</v>
       </c>
       <c r="K62" s="1">
-        <v>813306.6181</v>
+        <v>813601.7929</v>
       </c>
       <c r="L62" s="1">
-        <v>13.3785</v>
+        <v>13.3834</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-37</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.0872</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-36</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.0976</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-35</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.8505</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-34</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>11.8576</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-33</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.5699</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-32</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5994</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-31</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>14.6663</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-30</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.701</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-29</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8109</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-28</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.9322</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-27</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.5846</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-26</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.2867</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-25</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.0645</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-24</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.8083</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-23</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.5636</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-22</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>13.1788</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-21</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>14.5668</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-20</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.962</v>
@@ -15239,10 +15242,10 @@
         <v>202412.2516</v>
       </c>
       <c r="K19" s="1">
-        <v>168664.3427</v>
+        <v>168689.1972</v>
       </c>
       <c r="L19" s="1">
-        <v>12.7699</v>
+        <v>12.7718</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.2659</v>
@@ -15292,10 +15295,10 @@
         <v>193381.9037</v>
       </c>
       <c r="K20" s="1">
-        <v>189600.5337</v>
+        <v>189625.3882</v>
       </c>
       <c r="L20" s="1">
-        <v>12.8941</v>
+        <v>12.8958</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>12.4103</v>
@@ -15345,10 +15348,10 @@
         <v>205681.5246</v>
       </c>
       <c r="K21" s="1">
-        <v>212978.9611</v>
+        <v>213003.8156</v>
       </c>
       <c r="L21" s="1">
-        <v>12.8249</v>
+        <v>12.8264</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-17</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>12.3976</v>
@@ -15398,10 +15401,10 @@
         <v>215420.4401</v>
       </c>
       <c r="K22" s="1">
-        <v>222978.9611</v>
+        <v>223003.8156</v>
       </c>
       <c r="L22" s="1">
-        <v>12.8069</v>
+        <v>12.8084</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-16</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>12.9013</v>
@@ -15451,10 +15454,10 @@
         <v>242372.4609</v>
       </c>
       <c r="K23" s="1">
-        <v>232978.9611</v>
+        <v>233003.8156</v>
       </c>
       <c r="L23" s="1">
-        <v>12.7899</v>
+        <v>12.7913</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>13.3527</v>
@@ -15504,10 +15507,10 @@
         <v>261128.8809</v>
       </c>
       <c r="K24" s="1">
-        <v>250813.8245</v>
+        <v>250838.679</v>
       </c>
       <c r="L24" s="1">
-        <v>12.7996</v>
+        <v>12.8009</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-14</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8804</v>
@@ -15557,10 +15560,10 @@
         <v>281801.4421</v>
       </c>
       <c r="K25" s="1">
-        <v>260813.8245</v>
+        <v>260838.679</v>
       </c>
       <c r="L25" s="1">
-        <v>12.8209</v>
+        <v>12.8221</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-13</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.6268</v>
@@ -15610,10 +15613,10 @@
         <v>316336.7858</v>
       </c>
       <c r="K26" s="1">
-        <v>265365.7874</v>
+        <v>265390.642</v>
       </c>
       <c r="L26" s="1">
-        <v>12.8381</v>
+        <v>12.8393</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-12</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3636</v>
@@ -15663,10 +15666,10 @@
         <v>341479.9197</v>
       </c>
       <c r="K27" s="1">
-        <v>264257.1346</v>
+        <v>264286.4144</v>
       </c>
       <c r="L27" s="1">
-        <v>12.8314</v>
+        <v>12.8329</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-11</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.8711</v>
@@ -15716,10 +15719,10 @@
         <v>320865.9741</v>
       </c>
       <c r="K28" s="1">
-        <v>263620.9125</v>
+        <v>263652.7339</v>
       </c>
       <c r="L28" s="1">
-        <v>12.8263</v>
+        <v>12.8278</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-10</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.1252</v>
@@ -15769,10 +15772,10 @@
         <v>345976.0174</v>
       </c>
       <c r="K29" s="1">
-        <v>309143.7317</v>
+        <v>309175.5531</v>
       </c>
       <c r="L29" s="1">
-        <v>12.9737</v>
+        <v>12.9751</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-9</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.1934</v>
@@ -15822,10 +15825,10 @@
         <v>357603.6167</v>
       </c>
       <c r="K30" s="1">
-        <v>318084.5294</v>
+        <v>318116.3508</v>
       </c>
       <c r="L30" s="1">
-        <v>13.0042</v>
+        <v>13.0055</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-8</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.1176</v>
@@ -15875,10 +15878,10 @@
         <v>365628.1613</v>
       </c>
       <c r="K31" s="1">
-        <v>331647.6299</v>
+        <v>331679.4514</v>
       </c>
       <c r="L31" s="1">
-        <v>13.0499</v>
+        <v>13.0511</v>
       </c>
       <c r="M31" s="1">
         <v>0.5</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-7</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3311</v>
@@ -15928,10 +15931,10 @@
         <v>419259.8536</v>
       </c>
       <c r="K32" s="1">
-        <v>349038.1806</v>
+        <v>349070.002</v>
       </c>
       <c r="L32" s="1">
-        <v>13.1005</v>
+        <v>13.1017</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-6</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>15.3637</v>
@@ -15981,10 +15984,10 @@
         <v>430092.9804</v>
       </c>
       <c r="K33" s="1">
-        <v>332337.3058</v>
+        <v>332435.8795</v>
       </c>
       <c r="L33" s="1">
-        <v>13.0043</v>
+        <v>13.0081</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-5</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.6447</v>
@@ -16034,10 +16037,10 @@
         <v>420990.1544</v>
       </c>
       <c r="K34" s="1">
-        <v>347429.7365</v>
+        <v>347528.3101</v>
       </c>
       <c r="L34" s="1">
-        <v>13.0926</v>
+        <v>13.0963</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-4</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>15.486</v>
@@ -16087,10 +16090,10 @@
         <v>479030.9825</v>
       </c>
       <c r="K35" s="1">
-        <v>382716.4283</v>
+        <v>382815.002</v>
       </c>
       <c r="L35" s="1">
-        <v>13.224</v>
+        <v>13.2274</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>-3</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.1958</v>
@@ -16140,10 +16143,10 @@
         <v>509168.2857</v>
       </c>
       <c r="K36" s="1">
-        <v>374730.342</v>
+        <v>374860.825</v>
       </c>
       <c r="L36" s="1">
-        <v>13.1824</v>
+        <v>13.187</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>-2</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4264</v>
@@ -16193,10 +16196,10 @@
         <v>525661.535</v>
       </c>
       <c r="K37" s="1">
-        <v>371168.7811</v>
+        <v>371313.4855</v>
       </c>
       <c r="L37" s="1">
-        <v>13.1588</v>
+        <v>13.1639</v>
       </c>
       <c r="M37" s="1">
         <v>0.75</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>-1</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>17.107</v>
@@ -16246,10 +16249,10 @@
         <v>574246.6058</v>
       </c>
       <c r="K38" s="1">
-        <v>381555.8065</v>
+        <v>381700.5109</v>
       </c>
       <c r="L38" s="1">
-        <v>13.231</v>
+        <v>13.236</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>16.8894</v>
@@ -16299,10 +16302,10 @@
         <v>578014.7249</v>
       </c>
       <c r="K39" s="1">
-        <v>379050.3763</v>
+        <v>379205.093</v>
       </c>
       <c r="L39" s="1">
-        <v>13.2111</v>
+        <v>13.2165</v>
       </c>
       <c r="M39" s="1">
         <v>1</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>16.4004</v>
@@ -16352,10 +16355,10 @@
         <v>599058.5477999999</v>
       </c>
       <c r="K40" s="1">
-        <v>402724.5906</v>
+        <v>402879.3072</v>
       </c>
       <c r="L40" s="1">
-        <v>13.3836</v>
+        <v>13.3888</v>
       </c>
       <c r="M40" s="1">
         <v>0</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>15.3877</v>
@@ -16405,10 +16408,10 @@
         <v>576522.081</v>
       </c>
       <c r="K41" s="1">
-        <v>435146.5166</v>
+        <v>435301.2332</v>
       </c>
       <c r="L41" s="1">
-        <v>13.5713</v>
+        <v>13.5761</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.6367</v>
@@ -16458,10 +16461,10 @@
         <v>559834.7256</v>
       </c>
       <c r="K42" s="1">
-        <v>485627.1439</v>
+        <v>485781.8606</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7424</v>
+        <v>13.7468</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.0061</v>
@@ -16511,10 +16514,10 @@
         <v>507179.0829</v>
       </c>
       <c r="K43" s="1">
-        <v>530432.0272</v>
+        <v>530586.7438000001</v>
       </c>
       <c r="L43" s="1">
-        <v>13.8159</v>
+        <v>13.82</v>
       </c>
       <c r="M43" s="1">
         <v>0.5</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.835</v>
@@ -16564,10 +16567,10 @@
         <v>567334.6988</v>
       </c>
       <c r="K44" s="1">
-        <v>549268.6056</v>
+        <v>549423.3222000001</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7875</v>
+        <v>13.7914</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>14.4216</v>
@@ -16617,10 +16620,10 @@
         <v>601703.0074999999</v>
       </c>
       <c r="K45" s="1">
-        <v>576545.3698</v>
+        <v>576700.0864</v>
       </c>
       <c r="L45" s="1">
-        <v>13.791</v>
+        <v>13.7947</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.2404</v>
@@ -16670,10 +16673,10 @@
         <v>561562.3609</v>
       </c>
       <c r="K46" s="1">
-        <v>586545.3698</v>
+        <v>586700.0864</v>
       </c>
       <c r="L46" s="1">
-        <v>13.8018</v>
+        <v>13.8054</v>
       </c>
       <c r="M46" s="1">
         <v>0.4</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.382</v>
@@ -16723,10 +16726,10 @@
         <v>549767.9865999999</v>
       </c>
       <c r="K47" s="1">
-        <v>596545.3698</v>
+        <v>596700.0864</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7924</v>
+        <v>13.796</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>11.9583</v>
@@ -16776,10 +16779,10 @@
         <v>540517.9164</v>
       </c>
       <c r="K48" s="1">
-        <v>621844.5963</v>
+        <v>621999.313</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7301</v>
+        <v>13.7335</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.2036</v>
@@ -16829,10 +16832,10 @@
         <v>561769.4175</v>
       </c>
       <c r="K49" s="1">
-        <v>631844.5963</v>
+        <v>631999.313</v>
       </c>
       <c r="L49" s="1">
-        <v>13.6984</v>
+        <v>13.7018</v>
       </c>
       <c r="M49" s="1">
         <v>0.4</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.9136</v>
@@ -16882,10 +16885,10 @@
         <v>621598.4225</v>
       </c>
       <c r="K50" s="1">
-        <v>641844.5963</v>
+        <v>641999.313</v>
       </c>
       <c r="L50" s="1">
-        <v>13.6728</v>
+        <v>13.6761</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.4338</v>
@@ -16935,10 +16938,10 @@
         <v>656927.6154</v>
       </c>
       <c r="K51" s="1">
-        <v>668449.7092</v>
+        <v>668604.4258</v>
       </c>
       <c r="L51" s="1">
-        <v>13.642</v>
+        <v>13.6452</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.9657</v>
@@ -16988,10 +16991,10 @@
         <v>643653.1023</v>
       </c>
       <c r="K52" s="1">
-        <v>678449.7092</v>
+        <v>678604.4258</v>
       </c>
       <c r="L52" s="1">
-        <v>13.6393</v>
+        <v>13.6425</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.3568</v>
@@ -17041,10 +17044,10 @@
         <v>686758.299</v>
       </c>
       <c r="K53" s="1">
-        <v>688449.7092</v>
+        <v>688604.4258</v>
       </c>
       <c r="L53" s="1">
-        <v>13.6295</v>
+        <v>13.6325</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.2487</v>
@@ -17094,10 +17097,10 @@
         <v>691025.5117</v>
       </c>
       <c r="K54" s="1">
-        <v>711880.0819</v>
+        <v>712034.7986</v>
       </c>
       <c r="L54" s="1">
-        <v>13.6212</v>
+        <v>13.6242</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3991</v>
@@ -17147,10 +17150,10 @@
         <v>708943.2601</v>
       </c>
       <c r="K55" s="1">
-        <v>721880.0819</v>
+        <v>722034.7986</v>
       </c>
       <c r="L55" s="1">
-        <v>13.6163</v>
+        <v>13.6192</v>
       </c>
       <c r="M55" s="1">
         <v>0.4</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>13.5985</v>
@@ -17200,10 +17203,10 @@
         <v>748687.3936</v>
       </c>
       <c r="K56" s="1">
-        <v>731880.0819</v>
+        <v>732034.7986</v>
       </c>
       <c r="L56" s="1">
-        <v>13.6137</v>
+        <v>13.6166</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.6955</v>
@@ -17253,10 +17256,10 @@
         <v>763981.931</v>
       </c>
       <c r="K57" s="1">
-        <v>760965.772</v>
+        <v>761120.4887</v>
       </c>
       <c r="L57" s="1">
-        <v>13.6141</v>
+        <v>13.6169</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>13.3398</v>
@@ -17306,10 +17309,10 @@
         <v>753840.4906</v>
       </c>
       <c r="K58" s="1">
-        <v>770965.772</v>
+        <v>771120.4887</v>
       </c>
       <c r="L58" s="1">
-        <v>13.6155</v>
+        <v>13.6183</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.8469</v>
@@ -17359,10 +17362,10 @@
         <v>750867.6729</v>
       </c>
       <c r="K59" s="1">
-        <v>780965.772</v>
+        <v>781120.4887</v>
       </c>
       <c r="L59" s="1">
-        <v>13.6123</v>
+        <v>13.615</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>13.129</v>
@@ -17412,10 +17415,10 @@
         <v>777469.9557</v>
       </c>
       <c r="K60" s="1">
-        <v>806254.2422</v>
+        <v>806408.9589</v>
       </c>
       <c r="L60" s="1">
-        <v>13.5878</v>
+        <v>13.5904</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.716</v>
@@ -17465,10 +17468,10 @@
         <v>762664.0921</v>
       </c>
       <c r="K61" s="1">
-        <v>816254.2422</v>
+        <v>816408.9589</v>
       </c>
       <c r="L61" s="1">
-        <v>13.5823</v>
+        <v>13.5849</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.4613</v>
@@ -17518,10 +17521,10 @@
         <v>773374.1674</v>
       </c>
       <c r="K62" s="1">
-        <v>826254.2422</v>
+        <v>826408.9589</v>
       </c>
       <c r="L62" s="1">
-        <v>13.5715</v>
+        <v>13.574</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.5777</v>
       </c>
       <c r="D3" s="1">
-        <v>13.1993</v>
+        <v>13.2084</v>
       </c>
       <c r="E3" s="1">
-        <v>13.2459</v>
+        <v>13.2536</v>
       </c>
       <c r="F3" s="1">
-        <v>13.3785</v>
+        <v>13.3834</v>
       </c>
       <c r="G3" s="1">
-        <v>13.5715</v>
+        <v>13.574</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>242635.0872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9351</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2092</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0503</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9492</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9358</v>
       </c>
     </row>
   </sheetData>
